--- a/Data_science_outputs/Graphs/Third/1/Montlhy_consumption_4.xlsx
+++ b/Data_science_outputs/Graphs/Third/1/Montlhy_consumption_4.xlsx
@@ -475,13 +475,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6098.244439783336</v>
+        <v>4949.642832416669</v>
       </c>
       <c r="C2" t="n">
         <v>3372.516714616669</v>
       </c>
       <c r="D2" t="n">
-        <v>1311.985749583333</v>
+        <v>204.6528945666667</v>
       </c>
       <c r="E2" t="n">
         <v>1128.319309066667</v>
@@ -498,13 +498,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5665.614678750002</v>
+        <v>4654.605469183336</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1236.956875383333</v>
+        <v>187.6830644333333</v>
       </c>
       <c r="E3" t="n">
         <v>1122.1663292</v>
@@ -521,13 +521,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6034.604235033336</v>
+        <v>4945.102591533336</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1331.344105333333</v>
+        <v>209.5629226166667</v>
       </c>
       <c r="E4" t="n">
         <v>1351.48397225</v>
@@ -544,13 +544,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5991.36561296667</v>
+        <v>4605.854491083336</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1281.84396005</v>
+        <v>193.0902597666667</v>
       </c>
       <c r="E5" t="n">
         <v>1133.906195233333</v>
@@ -567,13 +567,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6153.580209250003</v>
+        <v>4934.395209500003</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1317.86152015</v>
+        <v>199.3819656833333</v>
       </c>
       <c r="E6" t="n">
         <v>1220.974174916667</v>
@@ -590,13 +590,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5936.17792136667</v>
+        <v>4645.800626650002</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1276.792679633333</v>
+        <v>194.8143918833333</v>
       </c>
       <c r="E7" t="n">
         <v>1108.46486935</v>
@@ -613,13 +613,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6116.659380766669</v>
+        <v>4874.360841583336</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1321.0839449</v>
+        <v>208.1396406833333</v>
       </c>
       <c r="E8" t="n">
         <v>1227.366442866667</v>
@@ -636,13 +636,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>5960.951071250002</v>
+        <v>4869.838935383335</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1318.0952261</v>
+        <v>191.7460731333333</v>
       </c>
       <c r="E9" t="n">
         <v>1251.147588333333</v>
@@ -659,13 +659,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>5731.943960483335</v>
+        <v>4605.612003033336</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1271.70674435</v>
+        <v>190.79789355</v>
       </c>
       <c r="E10" t="n">
         <v>1272.066631566667</v>
@@ -682,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>5949.48009376667</v>
+        <v>4706.058441483336</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1325.162964216667</v>
+        <v>191.4939004166667</v>
       </c>
       <c r="E11" t="n">
         <v>1256.579395583333</v>
@@ -705,13 +705,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>5638.870797166669</v>
+        <v>4787.523504650003</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1277.24021125</v>
+        <v>202.5828063666667</v>
       </c>
       <c r="E12" t="n">
         <v>1113.241444533333</v>
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>5877.559769316669</v>
+        <v>4743.635858583336</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1279.87185485</v>
+        <v>197.0560429</v>
       </c>
       <c r="E13" t="n">
         <v>1013.248365216667</v>
